--- a/ExpensesSys/Images/تقرير.xlsx
+++ b/ExpensesSys/Images/تقرير.xlsx
@@ -35,7 +35,7 @@
     <x:t>المبلغ</x:t>
   </x:si>
   <x:si>
-    <x:t>دفعة مستثمر</x:t>
+    <x:t>تمويل من المستثمر</x:t>
   </x:si>
   <x:si>
     <x:t>16/08/2024</x:t>
@@ -56,21 +56,39 @@
     <x:t>17/08/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>50,000,000</x:t>
+    <x:t>10,000,000</x:t>
   </x:si>
   <x:si>
     <x:t>المشروع الثاني</x:t>
   </x:si>
   <x:si>
-    <x:t>10,000,000</x:t>
-  </x:si>
-  <x:si>
     <x:t>21/08/2024</x:t>
   </x:si>
   <x:si>
     <x:t>500,000</x:t>
   </x:si>
   <x:si>
+    <x:t>قرض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>القناة العامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/07/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/06/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,000,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>المادة</x:t>
   </x:si>
   <x:si>
@@ -137,9 +155,6 @@
     <x:t>18/08/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>وارد المستثمر</x:t>
-  </x:si>
-  <x:si>
     <x:t>250,000</x:t>
   </x:si>
   <x:si>
@@ -167,6 +182,24 @@
     <x:t>كرار</x:t>
   </x:si>
   <x:si>
+    <x:t>طوب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>طن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فلان الفلاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فلان الفلاني 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,000,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>اسم_الموظف</x:t>
   </x:si>
   <x:si>
@@ -200,6 +233,36 @@
     <x:t>100,000</x:t>
   </x:si>
   <x:si>
+    <x:t>23/05/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>450,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/10/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/11/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/12/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/01/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/04/2024</x:t>
+  </x:si>
+  <x:si>
     <x:t>الاسم</x:t>
   </x:si>
   <x:si>
@@ -224,6 +287,12 @@
     <x:t>صرف</x:t>
   </x:si>
   <x:si>
+    <x:t>تصليح سيارة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>الاسم_او_السبب</x:t>
   </x:si>
   <x:si>
@@ -246,6 +315,9 @@
   </x:si>
   <x:si>
     <x:t>السبب الفلاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>السبب 12</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -309,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
-  <x:autoFilter ref="A1:E5"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+  <x:autoFilter ref="A1:E8"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="نوع_الوارد"/>
     <x:tableColumn id="2" name="التاريخ"/>
@@ -323,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L10" totalsRowShown="0">
-  <x:autoFilter ref="A1:L10"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L13" totalsRowShown="0">
+  <x:autoFilter ref="A1:L13"/>
   <x:tableColumns count="12">
     <x:tableColumn id="1" name="المادة"/>
     <x:tableColumn id="2" name="الكمية"/>
@@ -344,8 +416,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E8" totalsRowShown="0">
-  <x:autoFilter ref="A1:E8"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E42" totalsRowShown="0">
+  <x:autoFilter ref="A1:E42"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="اسم_الموظف"/>
     <x:tableColumn id="2" name="التاريخ"/>
@@ -358,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E4" totalsRowShown="0">
-  <x:autoFilter ref="A1:E4"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0">
+  <x:autoFilter ref="A1:E5"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="الاسم"/>
     <x:tableColumn id="2" name="الكمية"/>
@@ -372,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E4" totalsRowShown="0">
-  <x:autoFilter ref="A1:E4"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0">
+  <x:autoFilter ref="A1:E5"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="الاسم_او_السبب"/>
     <x:tableColumn id="2" name="التاريخ"/>
@@ -673,7 +745,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E5"/>
+  <x:dimension ref="A1:E8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -738,7 +810,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -746,13 +818,55 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
         <x:v>16</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -771,7 +885,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L10"/>
+  <x:dimension ref="A1:L13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -779,45 +893,45 @@
   <x:sheetData>
     <x:row r="1" spans="1:12">
       <x:c r="A1" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12">
       <x:c r="A2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>5</x:v>
@@ -826,7 +940,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>9000000</x:v>
@@ -835,24 +949,27 @@
         <x:v>8000000</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>5</x:v>
@@ -861,7 +978,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>9000000</x:v>
@@ -870,24 +987,27 @@
         <x:v>8000000</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
       <x:c r="A4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>10</x:v>
@@ -896,7 +1016,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>10000000</x:v>
@@ -908,21 +1028,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="0">
         <x:v>10</x:v>
@@ -931,7 +1054,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>10000000</x:v>
@@ -943,21 +1066,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>10</x:v>
@@ -966,7 +1092,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>10000000</x:v>
@@ -978,21 +1104,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12">
       <x:c r="A7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B7" s="0">
         <x:v>5</x:v>
@@ -1001,7 +1130,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>750000</x:v>
@@ -1013,24 +1142,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12">
       <x:c r="A8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B8" s="0">
         <x:v>5</x:v>
@@ -1039,7 +1168,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>750000</x:v>
@@ -1051,24 +1180,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12">
       <x:c r="A9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>12</x:v>
@@ -1077,7 +1206,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>20023</x:v>
@@ -1089,24 +1218,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12">
       <x:c r="A10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B10" s="0">
         <x:v>2</x:v>
@@ -1115,7 +1244,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E10" s="0">
         <x:v>500000</x:v>
@@ -1127,19 +1256,133 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B11" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C11" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E11" s="0">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B12" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C12" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E12" s="0">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12">
+      <x:c r="A13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B13" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C13" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E13" s="0">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1158,7 +1401,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E8"/>
+  <x:dimension ref="A1:E42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1166,24 +1409,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
@@ -1192,18 +1435,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>8</x:v>
@@ -1212,49 +1455,49 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>8</x:v>
@@ -1263,41 +1506,619 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>16</x:v>
+      <x:c r="C15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1316,7 +2137,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E4"/>
+  <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1324,58 +2145,58 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>1</x:v>
@@ -1387,7 +2208,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B5" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1406,7 +2244,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E4"/>
+  <x:dimension ref="A1:E5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1414,27 +2252,27 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>8</x:v>
@@ -1443,32 +2281,32 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>13</x:v>
@@ -1477,7 +2315,24 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
